--- a/MyTeam/Content/templates/ProjPlanImportT.xlsx
+++ b/MyTeam/Content/templates/ProjPlanImportT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>业需大纲讨论确认开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>业需联合开发小组成立时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新计划年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -498,11 +502,11 @@
     <col min="14" max="14" width="13.33203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="13.06640625" style="5" customWidth="1"/>
     <col min="16" max="16" width="16.06640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="15.796875" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9.1328125" style="4"/>
+    <col min="17" max="18" width="15.796875" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -553,6 +557,9 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
